--- a/trunk/Windows/ait/esTriangle/preformance.xlsx
+++ b/trunk/Windows/ait/esTriangle/preformance.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="26775" windowHeight="15075"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>5x5</t>
   </si>
@@ -34,6 +34,18 @@
   </si>
   <si>
     <t>1x1</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>10X10</t>
+  </si>
+  <si>
+    <t>15X15</t>
+  </si>
+  <si>
+    <t>20X20</t>
   </si>
 </sst>
 </file>
@@ -365,15 +377,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -384,7 +396,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -392,7 +404,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -400,7 +412,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -408,12 +420,75 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5">
         <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1725</v>
+      </c>
+      <c r="D7">
+        <f>C7/C1 - 1</f>
+        <v>5.504587155963292E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>198</v>
+      </c>
+      <c r="D8">
+        <f>C8/C2 - 1</f>
+        <v>0.16470588235294126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>79</v>
+      </c>
+      <c r="D9">
+        <f>C9/C3 - 1</f>
+        <v>0.43636363636363629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>42</v>
+      </c>
+      <c r="D10">
+        <f>C10/C4 - 1</f>
+        <v>0.35483870967741926</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <f>C11/C5 - 1</f>
+        <v>0.33333333333333326</v>
       </c>
     </row>
   </sheetData>
